--- a/medicine/Mort/Cimetière_de_Saint-Benoît/Cimetière_de_Saint-Benoît.xlsx
+++ b/medicine/Mort/Cimetière_de_Saint-Benoît/Cimetière_de_Saint-Benoît.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Beno%C3%AEt</t>
+          <t>Cimetière_de_Saint-Benoît</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Saint-Benoît est un cimetière de l'île de La Réunion, département et région d'outre-mer français dans le sud-ouest de l'océan Indien. Situé dans le centre-ville de la commune de Saint-Benoît, il accueille les sépultures de plusieurs personnalités de l'histoire de La Réunion, notamment le scientifique Joseph Hubert et l'homme politique Alexis de Villeneuve, mort assassiné.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Beno%C3%AEt</t>
+          <t>Cimetière_de_Saint-Benoît</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Sépultures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean Barassin (1911-2001), prêtre et historien.
 Jean-Claude Fruteau (1947-2022), homme politique.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Beno%C3%AEt</t>
+          <t>Cimetière_de_Saint-Benoît</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Stèle pour Cécilia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À l'entrée du cimetière se trouve une stèle érigée à l'initiative de l'historien Prosper Ève en mémoire de Cécilia, une esclave évoquée dans Loisirs, le recueil de nouvelles d'Auguste Logeais daté de 1845. Y est inscrite l'épitaphe que l'auteur avait imaginée à la demande du père de la défunte, mais à laquelle il avait dû renoncer sous la pression de raciste de la bonne société coloniale, inquiète de cet excès d'égards pour la dépouille d'une femme noire[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À l'entrée du cimetière se trouve une stèle érigée à l'initiative de l'historien Prosper Ève en mémoire de Cécilia, une esclave évoquée dans Loisirs, le recueil de nouvelles d'Auguste Logeais daté de 1845. Y est inscrite l'épitaphe que l'auteur avait imaginée à la demande du père de la défunte, mais à laquelle il avait dû renoncer sous la pression de raciste de la bonne société coloniale, inquiète de cet excès d'égards pour la dépouille d'une femme noire.
 « Condamnée en naissant au joug de l'esclavage,
 Elle eut long-temps gémi dans ce monde pervers
 Et fait de la douleur un long apprentissage,
